--- a/UralsSteel/orders_list.xlsx
+++ b/UralsSteel/orders_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>jjhvkghcvkhgckciktciyriyyritrxitxrit</t>
+          <t>олтполтпл54илр24</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -524,40 +524,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Самовывоз</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Оплата по квитанции</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Мухамад</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>muhamad.alyasaev@gmail.com</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>89250218355</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>олтполтпл54илр24</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Самовывоз</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Оплата по квитанции</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Мухамад</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>muhamad.alyasaev@gmail.com</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>89250218355</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>jjhvkghcvkhgckciktciyriyyritrxitxrit</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>олтполтпл54илр24</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>

--- a/UralsSteel/orders_list.xlsx
+++ b/UralsSteel/orders_list.xlsx
@@ -481,12 +481,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Самовывоз</t>
+          <t>Доставка собственным транспортом</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>олтполтпл54илр24</t>
+          <t>bn nvb mv m</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -529,7 +529,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Самовывоз</t>
+          <t>Доставка собственным транспортом</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -554,7 +554,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>олтполтпл54илр24</t>
+          <t>bn nvb mv m</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -567,12 +567,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Самовывоз</t>
+          <t>Доставка собственным транспортом</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>олтполтпл54илр24</t>
+          <t>bn nvb mv m</t>
         </is>
       </c>
       <c r="I4" t="b">

--- a/UralsSteel/orders_list.xlsx
+++ b/UralsSteel/orders_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,12 +481,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Доставка собственным транспортом</t>
+          <t>Самовывоз</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>bn nvb mv m</t>
+          <t>hgflywgERLYFGLUYWGFOUY</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -524,12 +524,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Доставка собственным транспортом</t>
+          <t>Самовывоз</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -554,53 +554,10 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>bn nvb mv m</t>
+          <t>hgflywgERLYFGLUYWGFOUY</t>
         </is>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Доставка собственным транспортом</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Оплата по квитанции</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Мухамад</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>muhamad.alyasaev@gmail.com</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>89250218355</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>bn nvb mv m</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
